--- a/src/Img/Reportes.xlsx
+++ b/src/Img/Reportes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>Cedula</t>
   </si>
@@ -165,6 +165,42 @@
   </si>
   <si>
     <t>mercedez</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Zamora</t>
+  </si>
+  <si>
+    <t>Contadora</t>
+  </si>
+  <si>
+    <t>Ruptura amorosa</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>Sabados</t>
+  </si>
+  <si>
+    <t>ana@yahoo.es</t>
+  </si>
+  <si>
+    <t>nada</t>
+  </si>
+  <si>
+    <t>2018-04-09 05:51:54.0</t>
+  </si>
+  <si>
+    <t>Ana Zamora</t>
+  </si>
+  <si>
+    <t>Tibás</t>
   </si>
   <si>
     <t>cedula</t>
@@ -270,7 +306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -284,10 +320,10 @@
     <col min="6" max="6" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.6328125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.66015625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.78125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.56640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="13.7734375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="14.63671875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="7.859375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="14.30078125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="9.671875" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="22.10546875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="13.640625" customWidth="true" bestFit="true"/>
@@ -501,34 +537,34 @@
         <v>53</v>
       </c>
       <c r="F4" t="n">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
       <c r="G4" t="n">
-        <v>8712.0</v>
+        <v>2.22222222E8</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
@@ -540,7 +576,7 @@
         <v>35</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T4" t="n">
         <v>1.0</v>
@@ -548,49 +584,49 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
-        <v>871.0</v>
+        <v>23.0</v>
       </c>
       <c r="G5" t="n">
-        <v>23.0</v>
+        <v>8712.0</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
         <v>33</v>
@@ -602,7 +638,7 @@
         <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="T5" t="n">
         <v>1.0</v>
@@ -619,10 +655,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F6" t="n">
         <v>871.0</v>
@@ -634,25 +670,25 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
         <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
       </c>
       <c r="P6" t="s">
         <v>33</v>
@@ -672,49 +708,49 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F7" t="n">
+        <v>871.0</v>
+      </c>
+      <c r="G7" t="n">
         <v>23.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8712.0</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
         <v>67</v>
       </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s">
         <v>33</v>
@@ -729,6 +765,68 @@
         <v>50</v>
       </c>
       <c r="T7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8712.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.0</v>
       </c>
     </row>
